--- a/biology/Zoologie/Babina_(genre)/Babina_(genre).xlsx
+++ b/biology/Zoologie/Babina_(genre)/Babina_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Babina est un genre d'amphibiens de la famille des Ranidae[1].
+Babina est un genre d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dix espèces de ce genre se rencontrent en Asie de l'Est et dans le nord de l'Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dix espèces de ce genre se rencontrent en Asie de l'Est et dans le nord de l'Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (30 mai 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (30 mai 2013) :
 Babina adenopleura (Boulenger, 1909)
 Babina caldwelli (Schmidt, 1925)
 Babina chapaensis (Bourret, 1937)
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thompson, 1912 : Prodrome of a description of a new genus of Ranidae from the Loo Choo islands. Herpetological notices, no 1, p. 1-3 (texte intégral).</t>
         </is>
